--- a/NewsDataset/ValidateNewsData.xlsx
+++ b/NewsDataset/ValidateNewsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\NewsFactCheck\NewsDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7792C0-FA68-4FCE-AAE4-A7E27490BD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FA808B-F5ED-4BE9-91FF-BF38ACDCCEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34344D3E-26E3-4AA0-ABE4-866B401C5DAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Dozens of flights in and out of Anchorage and around the state have been cancelled due to a volcanic ash cloud drifting over from Russia following an eruption of the Sheveluch volcano on the Kamchatka Peninsula earlier this week.  At least 28 Alaska Airlines flights have been grounded, and further delays and cancellations are possible depending on the ongoing situation with the ash particles in the atmosphere.  Despite the safety precautions, Ted Stevens Anchorage International Airport remains open and operational.  The ash cloud is not expected to pose an imminent threat to Alaskans, but further disruptions to flights are possible as the ash continues to move through the atmosphere.</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Elon Musk’s Twitter has been fined with $30 billion in Germany (which is more than Twitter is currently worth) over Twitter’s repeated “systemic failures” to comply with Germany’s “hate speech” laws.</t>
+  </si>
+  <si>
+    <t>A shooting at a \"sweet 16\" birthday party in Dadeville, Alabama has left four people dead and 32 others injured. The investigation is ongoing and no arrests have been made. Grief counselors are on hand at Dadeville High School where at least two of the victims were students. The shooting occurred at a dance studio in downtown Dadeville, and most of the injured are teenagers. Further details about the shooting have not been released.</t>
+  </si>
+  <si>
+    <t>18/4/2023</t>
+  </si>
+  <si>
+    <t>The CEO of Murray Energy, a coal company and a strong supporter of President Trump, has warned that the GOP tax plan could destroy thousands of coal mining jobs. The Senate version of tax reform could see the company’s tax bill increase by $60m per year, leading the company to fail financially. In an interview, the CEO stated that this would result in losing everything that President Trump has done for coal, including bringing back thousands of jobs.</t>
   </si>
 </sst>
 </file>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C668F5-C005-4571-A7FE-21D01946E4FB}">
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +530,25 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NewsDataset/ValidateNewsData.xlsx
+++ b/NewsDataset/ValidateNewsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\NewsFactCheck\NewsDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FA808B-F5ED-4BE9-91FF-BF38ACDCCEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9EEAF4-D9C7-4972-900A-CFD4681B62A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34344D3E-26E3-4AA0-ABE4-866B401C5DAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Dozens of flights in and out of Anchorage and around the state have been cancelled due to a volcanic ash cloud drifting over from Russia following an eruption of the Sheveluch volcano on the Kamchatka Peninsula earlier this week.  At least 28 Alaska Airlines flights have been grounded, and further delays and cancellations are possible depending on the ongoing situation with the ash particles in the atmosphere.  Despite the safety precautions, Ted Stevens Anchorage International Airport remains open and operational.  The ash cloud is not expected to pose an imminent threat to Alaskans, but further disruptions to flights are possible as the ash continues to move through the atmosphere.</t>
   </si>
@@ -69,6 +69,69 @@
   </si>
   <si>
     <t>The CEO of Murray Energy, a coal company and a strong supporter of President Trump, has warned that the GOP tax plan could destroy thousands of coal mining jobs. The Senate version of tax reform could see the company’s tax bill increase by $60m per year, leading the company to fail financially. In an interview, the CEO stated that this would result in losing everything that President Trump has done for coal, including bringing back thousands of jobs.</t>
+  </si>
+  <si>
+    <t>A Capitol Hill press conference that was supposed to be about judicial nominations went quickly south when Senator Chuck Grassley (R-IA) suddenly felt the need to sneak out, and in the process almost knocked over the flags behind the podium.The podium was being held by Senate Majority Whip John Cornyn (R-TX). Anybody have any questions for Senator Grassley, or anybody else here, on this topic?  Senate Majority Whip John Cornyn, R-Texas, asked reporters, making clear he didn t want questions about the indictments and guilty plea involving three of President Donald Trump s campaign aides to dominate the news conference.When reporters pressed to get on-camera comment about the legal problems facing Trump campaign aides Paul Manafort, Rick Gates and George Papadopoulos, the usually accommodating Cornyn tried to deflect, saying the issue wasn t in the Senate s  wheelhouse. As multiple reporters shouted out, Grassley, who chairs the judiciary committee, which is investigating alleged Russian meddling in US elections, decided to slip out.Source: CNNAt about the 20 second mark, you can see Grassley start anxiously planning his exit. Even while Cornyn was answering questions, Grassley continued to eye the exit, just behind the flags. Then a reporter asked about the indictment of Trump s former campaign chair, Paul Manafort. Behind Cornyn, the flags begin to rock and you see a head appear and then soon disappear through the exit, but since the flags were blocking the doors, Grassley almost knocked them over on his way out. Just imagine for a moment if a Democrat had done that. They would forever be labeled anti-American.The flag episode is not why I d label Grassley anti-American. I would label him anti-American because he s attempted to obstruct and deflect the investigation into Russian collusion from its inception.</t>
+  </si>
+  <si>
+    <t>31/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday, October 30, 2017 is one of those dates that will go down in history, the type where future generations will ask you where you were and what you were doing when former Trump campaign manager Paul Manafort, as well as Manafort s top aide, Rick Gates surrendered to the FBI, later entering  not guilty  pleas, while Trump foreign policy adviser George Papadopoulos pled guilty to lying to the FBI about his contacts with Russia as a result of Robert Mueller s probe into President Trump s possible collusion with the country.Infamous moments of historical significance such as these only come around maybe once every 15 or 20 years so when the news broke on Monday morning, we all knew that one thing was for certain   That late-night TV hosts were going to have an absolute field day with this story. Not due to the direct implications of Mueller s investigation, however, but more because of how the President and anyone linked to him would react. Taylor Swift has better coping mechanisms than President Trump so most of us were curious as to what Trump would Tweet or how Fox News would handle the story and neither disappointed.Our late-night hosts didn t let us down, either, but nobody summarized the whole situation better than Seth Meyers during his A Closer Look segment on Late Night with Seth Meyers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a federal court struck down the new version of the Muslim ban (which was basically just like the first one) Donald Trump called it  judicial overreach  at a rally in Nashville, Tennessee, and said that it makes our country look  weak.  And now, the federal judge in Hawaii who ruled against Trump s newest version of a Muslim ban is inundated with threatening messages since the ruling, according to the FBI. Hours before the ban was to go into effect, US District Judge Derrick Watson s ruling resulted in a temporary restraining order nationwide. This was the second time a court ruled against Trump s executive order which resulted in chaos worldwide. Travellers were in mid-flight after the alleged president signed the first one. Protests at airports ensued after people were detained without notice.The FBI did not provide details as to the location the threats are coming from, however, the agency did say they are coming from within the mainland.The U.S. Marshals Service has had to fly in about a dozen deputies from the mainland to provide 24-hour protection for Watson, according to HawaiiNewsNow. The FBI said it will assist the the U.S. Marshals Service if necessary to protect the judge. The illogic of the government s contentions is palpable. The notion that one can demonstrate animus toward any group of people only by targeting all of them at once is fundamentally flawed,  Watson wrote in the ruling. Trump s own words were used against him in the ruling.Hawaii News Now   KGMB and KHNLThreats against a federal judge or his or her family is a federal crime and is considered obstruction of justice. Trump went on a tweetstorm against the first federal judge who ruled against his travel ban.Even Neil Gorsuch, Trump s Supreme Court nominee who is hoping to take Merrick Garland s stolen seat, called the alleged president s tweets attacking federal judges  disheartening  and  demoralizing.  Still yet, White House press secretary Sean Spicer denied that Gorsuch was referring to Trump.More than one judge has been the target of threats after Trump publicly criticized them. That includes a Seattle judge known for his conservative legal views, who was appointed by George W. Bush.It s clear that Trump is inciting these threats, knowing full well that his die-hard supporters will do his bidding. </t>
+  </si>
+  <si>
+    <t>21/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trump campaign adviser George Papadopoulos told an Australian diplomat in May 2016 that Russia had political dirt on Democratic presidential candidate Hillary Clinton, the New York Times reported on Saturday. The conversation between Papadopoulos and the diplomat, Alexander Downer, in London was a driving factor behind the FBIâ€™s decision to open a counter-intelligence investigation of Moscowâ€™s contacts with the Trump campaign, the Times reported. Two months after the meeting, Australian officials passed the information that came from Papadopoulos to their American counterparts when leaked Democratic emails began appearing online, according to the newspaper, which cited four current and former U.S. and foreign officials. Besides the information from the Australians, the probe by the Federal Bureau of Investigation was also propelled by intelligence from other friendly governments, including the British and Dutch, the Times said. Papadopoulos, a Chicago-based international energy lawyer, pleaded guilty on Oct. 30 to lying to FBI agents about contacts with people who claimed to have ties to top Russian officials. It was the first criminal charge alleging links between the Trump campaign and Russia. The White House has played down the former aideâ€™s campaign role, saying it was â€œextremely limitedâ€ and that any actions he took would have been on his own. The New York Times, however, reported that Papadopoulos helped set up a meeting between then-candidate Donald Trump and Egyptian President Abdel Fattah al-Sisi and edited the outline of Trumpâ€™s first major foreign policy speech in April 2016. The federal investigation, which is now being led by Special Counsel Robert Mueller, has hung over Trumpâ€™s White House since he took office almost a year ago. Some Trump allies have recently accused Muellerâ€™s team of being biased against the Republican president. Lawyers for Papadopoulos did not immediately respond to requests by Reuters for comment. Muellerâ€™s office declined to comment. Trumpâ€™s White House attorney, Ty Cobb, declined to comment on the New York Times report. â€œOut of respect for the special counsel and his process, we are not commenting on matters such as this,â€ he said in a statement. Mueller has charged four Trump associates, including Papadopoulos, in his investigation. Russia has denied interfering in the U.S. election and Trump has said there was no collusion between his campaign and Moscow. </t>
+  </si>
+  <si>
+    <t>30/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ethics probe into U.S. Representative Blake Farenthold, who is already under a cloud for alleged sexual misconduct, is being expanded to look into whether he mixed his political campaign with congressional work and lied to the House Ethics Committee, the panel said on Thursday. Last week, Farenthold said he would not seek re-election next year after accounts surfaced that he created a hostile work environment. The Texas Republican denied allegations of sexual harassment but admitted allowing an unprofessional culture in his Capitol Hill office. On Thursday the ethics committee voted unanimously to investigate whether Farenthold used his congressional staff and other resources of the House of Representatives to further his political campaign, and if he had made false statements or omissions to the committee. The panel was already looking into whether he committed sexual harassment, discrimination and retaliation against a former staff member and if he made inappropriate statements to other members of his staff.  The committee said the announcement should not be read as an indication that it had found any rule violations. Farentholdâ€™s office did not immediately respond to a request for comment. Congress strictly divides lawmakersâ€™ work on Capitol Hill and their runs for re-election so that taxpayers do not end up subsidizing political campaigns. In August, the committee went so far as to warn Representatives, who face elections every two years, they should not even send texts or forward emails related to their campaigns while in House buildings. Congress is reviewing its workplace policies on sexual harassment after a number of lawmakers have been accused of sexual misconduct in recent weeks amid a wave of such allegations against powerful men in entertainment, politics and the media. A bipartisan group of lawmakers in the House said on Thursday intends to introduce legislation in January reforming a 20-year-old law that covers sexual harassment in Congress, which it hopes will pass soon after. </t>
+  </si>
+  <si>
+    <t>21/12/2017</t>
+  </si>
+  <si>
+    <t>An employee of the Jefferson County morgue died this morning, after being accidentally cremated by one of his coworkers.
+According to the Beaumont Police Department, 48-year old Henri Paul Johnson decided to take a nap one a stretcher after working for sixteen hours straight.
+While he was sleeping, another employee mistook him for the corpse of a 52-year old car accident victim and carried him to the crematory.
+Before anyone could notice the mistake, he had already been exposed to temperatures ranging between 1400 to 1800 degrees Fahrenheit and reduced to ashes.
+Jenna Davis, one of Henri Johnson’s coworkers, says she heard him scream for about 15 seconds after the crematory was activated.
+“At first, we didn’t understand where the sound was coming from. When we realised what was happening, it was too late. We shut down the heating system, but he was already dead.”</t>
+  </si>
+  <si>
+    <t>It’s April Fools. Everyone wants to prank their friends, family and even customers, but this man got it very wrong. 27-year old Thomas McClure is now an ex-employee of a morgue in Boston, after he tried to prank his coworkers by pretending he was dead.
+To achieve his goal, he took an overdose of sleeping pills, with the idea that he was gonna be so unconscious that there would be no way to wake him up. And everything went exactly as planned: He took the pills in the morning and started doing his job. A few minutes later, he fell asleep on the floor and no one was able to wake him up. They tried pouring water on his face, slapping him, but nothing worked.
+The prank worked like a charm, and all the employees were sad because they thought their friend was dead. Unfortunately, they reached to the conclusion that he was, indeed, dead, and decided to cremate him.</t>
+  </si>
+  <si>
+    <t>FASLE</t>
+  </si>
+  <si>
+    <t>PLANE THAT DISAPPEARED IN BERMUDA TRIANGLE IN 1945 LANDS IN FLORIDA, CREW MEMBERS REMEMBER NOTHING
+One of a group of five Grumman TBM Avenger torpedo bombers that disappeared over the Bermuda Triangle on December 5, 1945, mysteriously reappeared this morning at the Patrick Air Force Base in Brevard, Florida.
+Around 7:15 AM this morning, a single-engine propeller aircraft arrived in the vicinity of the United States Air Force restricted flight zone and used an abandoned military radio frequency to demand permission to land on the installation.
+The pilot ignored several warnings from the tower operators, insisting that his obsolete aircraft was a military vehicle belonging to the U.S. Air Force.</t>
+  </si>
+  <si>
+    <t>India is set to surpass China as the world’s most populous nation, with almost 3 million more people by the middle of this year, data released by the United Nations on Wednesday showed.
+Based on the projections, India’s population by mid-year will reach 1.4286 billion, compared to China’s 1.4257 billion – 2.9 million fewer – according to the United Nations Population Fund’s (UNFPA) “State of World Population Report” for 2023.
+UN officials have said it is not possible to determine the exact date for the shift, due to “uncertainty” about the data coming from China and India. India’s last census was in 2011 and most recent, scheduled in 2021, was delayed during the Covid-19 pandemic.
+The United States is a very distant third, with an estimated population of 340 million, the data, which reflects information available as of February, showed.
+By 2050, eight countries will account for half the projected growth in global population: The Democratic Republic of the Congo (DRC), Egypt, Ethiopia, India, Nigeria, Pakistan, the Philippines and Tanzania, according to the UNFPA report.
+China has held the distinction of most populous country since at least 1950, when the UN population records began.</t>
+  </si>
+  <si>
+    <t>TURE</t>
+  </si>
+  <si>
+    <t>20/3/2023</t>
   </si>
 </sst>
 </file>
@@ -104,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -114,6 +177,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C668F5-C005-4571-A7FE-21D01946E4FB}">
-  <dimension ref="B1:D10"/>
+  <dimension ref="B1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,6 +616,105 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="2:4" ht="390" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
